--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/S100a9-Tlr4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/S100a9-Tlr4.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>2058.152994666667</v>
+        <v>0.1881506666666667</v>
       </c>
       <c r="H2">
-        <v>6174.458984000001</v>
+        <v>0.564452</v>
       </c>
       <c r="I2">
-        <v>0.9825919405339512</v>
+        <v>0.06062261335217859</v>
       </c>
       <c r="J2">
-        <v>0.982591940533951</v>
+        <v>0.0606226133521786</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>14.93036733333333</v>
+        <v>8.554479333333333</v>
       </c>
       <c r="N2">
-        <v>44.791102</v>
+        <v>25.663438</v>
       </c>
       <c r="O2">
-        <v>0.252612808865421</v>
+        <v>0.1655051910559175</v>
       </c>
       <c r="P2">
-        <v>0.252612808865421</v>
+        <v>0.1655051910559175</v>
       </c>
       <c r="Q2">
-        <v>30728.98023857338</v>
+        <v>1.609530989552889</v>
       </c>
       <c r="R2">
-        <v>276560.8221471604</v>
+        <v>14.485778905976</v>
       </c>
       <c r="S2">
-        <v>0.2482153100668062</v>
+        <v>0.01003335720516133</v>
       </c>
       <c r="T2">
-        <v>0.2482153100668061</v>
+        <v>0.01003335720516134</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>24</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>2058.152994666667</v>
+        <v>0.1881506666666667</v>
       </c>
       <c r="H3">
-        <v>6174.458984000001</v>
+        <v>0.564452</v>
       </c>
       <c r="I3">
-        <v>0.9825919405339512</v>
+        <v>0.06062261335217859</v>
       </c>
       <c r="J3">
-        <v>0.982591940533951</v>
+        <v>0.0606226133521786</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>20.28486166666666</v>
+        <v>20.28486166666667</v>
       </c>
       <c r="N3">
-        <v>60.85458499999999</v>
+        <v>60.854585</v>
       </c>
       <c r="O3">
-        <v>0.3432076230048887</v>
+        <v>0.392455200938143</v>
       </c>
       <c r="P3">
-        <v>0.3432076230048887</v>
+        <v>0.392455200938143</v>
       </c>
       <c r="Q3">
-        <v>41749.34878564907</v>
+        <v>3.816610245824445</v>
       </c>
       <c r="R3">
-        <v>375744.1390708417</v>
+        <v>34.34949221242</v>
       </c>
       <c r="S3">
-        <v>0.3372330442944183</v>
+        <v>0.0237916599045246</v>
       </c>
       <c r="T3">
-        <v>0.3372330442944182</v>
+        <v>0.0237916599045246</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>2058.152994666667</v>
+        <v>0.1881506666666667</v>
       </c>
       <c r="H4">
-        <v>6174.458984000001</v>
+        <v>0.564452</v>
       </c>
       <c r="I4">
-        <v>0.9825919405339512</v>
+        <v>0.06062261335217859</v>
       </c>
       <c r="J4">
-        <v>0.982591940533951</v>
+        <v>0.0606226133521786</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.399549333333334</v>
+        <v>5.037112666666666</v>
       </c>
       <c r="N4">
-        <v>13.198648</v>
+        <v>15.111338</v>
       </c>
       <c r="O4">
-        <v>0.0744377207889632</v>
+        <v>0.09745400763531942</v>
       </c>
       <c r="P4">
-        <v>0.07443772078896321</v>
+        <v>0.09745400763531943</v>
       </c>
       <c r="Q4">
-        <v>9054.945635583739</v>
+        <v>0.9477361063084444</v>
       </c>
       <c r="R4">
-        <v>81494.51072025365</v>
+        <v>8.529624956775999</v>
       </c>
       <c r="S4">
-        <v>0.07314190451895179</v>
+        <v>0.005907916624496229</v>
       </c>
       <c r="T4">
-        <v>0.07314190451895179</v>
+        <v>0.005907916624496231</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>21</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>2058.152994666667</v>
+        <v>0.1881506666666667</v>
       </c>
       <c r="H5">
-        <v>6174.458984000001</v>
+        <v>0.564452</v>
       </c>
       <c r="I5">
-        <v>0.9825919405339512</v>
+        <v>0.06062261335217859</v>
       </c>
       <c r="J5">
-        <v>0.982591940533951</v>
+        <v>0.0606226133521786</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>19.48898366666667</v>
+        <v>17.810622</v>
       </c>
       <c r="N5">
-        <v>58.46695100000001</v>
+        <v>53.431866</v>
       </c>
       <c r="O5">
-        <v>0.3297418473407271</v>
+        <v>0.34458560037062</v>
       </c>
       <c r="P5">
-        <v>0.3297418473407271</v>
+        <v>0.34458560037062</v>
       </c>
       <c r="Q5">
-        <v>40111.31009655976</v>
+        <v>3.351080403047999</v>
       </c>
       <c r="R5">
-        <v>361001.7908690379</v>
+        <v>30.159723627432</v>
       </c>
       <c r="S5">
-        <v>0.324001681653775</v>
+        <v>0.02088967961799642</v>
       </c>
       <c r="T5">
-        <v>0.3240016816537749</v>
+        <v>0.02088967961799643</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>36.46320333333333</v>
+        <v>2.915487666666667</v>
       </c>
       <c r="H6">
-        <v>109.38961</v>
+        <v>8.746463</v>
       </c>
       <c r="I6">
-        <v>0.01740805946604894</v>
+        <v>0.9393773866478214</v>
       </c>
       <c r="J6">
-        <v>0.01740805946604893</v>
+        <v>0.9393773866478214</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>14.93036733333333</v>
+        <v>8.554479333333333</v>
       </c>
       <c r="N6">
-        <v>44.791102</v>
+        <v>25.663438</v>
       </c>
       <c r="O6">
-        <v>0.252612808865421</v>
+        <v>0.1655051910559175</v>
       </c>
       <c r="P6">
-        <v>0.252612808865421</v>
+        <v>0.1655051910559175</v>
       </c>
       <c r="Q6">
-        <v>544.4090199166911</v>
+        <v>24.94047899108822</v>
       </c>
       <c r="R6">
-        <v>4899.681179250219</v>
+        <v>224.464310919794</v>
       </c>
       <c r="S6">
-        <v>0.004397498798614903</v>
+        <v>0.1554718338507562</v>
       </c>
       <c r="T6">
-        <v>0.004397498798614902</v>
+        <v>0.1554718338507562</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>36.46320333333333</v>
+        <v>2.915487666666667</v>
       </c>
       <c r="H7">
-        <v>109.38961</v>
+        <v>8.746463</v>
       </c>
       <c r="I7">
-        <v>0.01740805946604894</v>
+        <v>0.9393773866478214</v>
       </c>
       <c r="J7">
-        <v>0.01740805946604893</v>
+        <v>0.9393773866478214</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>20.28486166666666</v>
+        <v>20.28486166666667</v>
       </c>
       <c r="N7">
-        <v>60.85458499999999</v>
+        <v>60.854585</v>
       </c>
       <c r="O7">
-        <v>0.3432076230048887</v>
+        <v>0.392455200938143</v>
       </c>
       <c r="P7">
-        <v>0.3432076230048887</v>
+        <v>0.392455200938143</v>
       </c>
       <c r="Q7">
-        <v>739.6510355402055</v>
+        <v>59.14026400920612</v>
       </c>
       <c r="R7">
-        <v>6656.859319861848</v>
+        <v>532.262376082855</v>
       </c>
       <c r="S7">
-        <v>0.005974578710470407</v>
+        <v>0.3686635410336184</v>
       </c>
       <c r="T7">
-        <v>0.005974578710470405</v>
+        <v>0.3686635410336184</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>36.46320333333333</v>
+        <v>2.915487666666667</v>
       </c>
       <c r="H8">
-        <v>109.38961</v>
+        <v>8.746463</v>
       </c>
       <c r="I8">
-        <v>0.01740805946604894</v>
+        <v>0.9393773866478214</v>
       </c>
       <c r="J8">
-        <v>0.01740805946604893</v>
+        <v>0.9393773866478214</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.399549333333334</v>
+        <v>5.037112666666666</v>
       </c>
       <c r="N8">
-        <v>13.198648</v>
+        <v>15.111338</v>
       </c>
       <c r="O8">
-        <v>0.0744377207889632</v>
+        <v>0.09745400763531942</v>
       </c>
       <c r="P8">
-        <v>0.07443772078896321</v>
+        <v>0.09745400763531943</v>
       </c>
       <c r="Q8">
-        <v>160.4216619163645</v>
+        <v>14.68563985527711</v>
       </c>
       <c r="R8">
-        <v>1443.79495724728</v>
+        <v>132.170758697494</v>
       </c>
       <c r="S8">
-        <v>0.001295816270011418</v>
+        <v>0.09154609101082319</v>
       </c>
       <c r="T8">
-        <v>0.001295816270011418</v>
+        <v>0.0915460910108232</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>36.46320333333333</v>
+        <v>2.915487666666667</v>
       </c>
       <c r="H9">
-        <v>109.38961</v>
+        <v>8.746463</v>
       </c>
       <c r="I9">
-        <v>0.01740805946604894</v>
+        <v>0.9393773866478214</v>
       </c>
       <c r="J9">
-        <v>0.01740805946604893</v>
+        <v>0.9393773866478214</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>19.48898366666667</v>
+        <v>17.810622</v>
       </c>
       <c r="N9">
-        <v>58.46695100000001</v>
+        <v>53.431866</v>
       </c>
       <c r="O9">
-        <v>0.3297418473407271</v>
+        <v>0.34458560037062</v>
       </c>
       <c r="P9">
-        <v>0.3297418473407271</v>
+        <v>0.34458560037062</v>
       </c>
       <c r="Q9">
-        <v>710.630774197679</v>
+        <v>51.926648776662</v>
       </c>
       <c r="R9">
-        <v>6395.676967779111</v>
+        <v>467.339838989958</v>
       </c>
       <c r="S9">
-        <v>0.005740165686952208</v>
+        <v>0.3236959207526235</v>
       </c>
       <c r="T9">
-        <v>0.005740165686952207</v>
+        <v>0.3236959207526236</v>
       </c>
     </row>
   </sheetData>
